--- a/wwwroot/UploadTemplate/PE/MainpowerUploadTemplate.xlsx
+++ b/wwwroot/UploadTemplate/PE/MainpowerUploadTemplate.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MESProject\wwwroot\UploadTemplate\PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95880BBE-478A-4A94-97CE-031AA1A13960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33C79E-D8E3-48BE-ADF8-00D4AB7FFEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BED4B4A-46C0-438A-878F-85521BD3D11B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manpower!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manpower!$A$2:$O$2</definedName>
     <definedName name="bp_locate">#REF!</definedName>
     <definedName name="itemcode">#REF!</definedName>
     <definedName name="level">#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>SMT 前</t>
+  </si>
+  <si>
+    <t>INSERT 前</t>
+  </si>
+  <si>
+    <t>CHECKLINE 前</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,38 +438,47 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -534,189 +552,12 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>2</v>
-          </cell>
-          <cell r="D2">
-            <v>3</v>
-          </cell>
-          <cell r="E2">
-            <v>4</v>
-          </cell>
-          <cell r="F2">
-            <v>5</v>
-          </cell>
-          <cell r="G2">
-            <v>6</v>
-          </cell>
-          <cell r="H2">
-            <v>7</v>
-          </cell>
-          <cell r="I2">
-            <v>8</v>
-          </cell>
-          <cell r="J2">
-            <v>9</v>
-          </cell>
-          <cell r="K2">
-            <v>10</v>
-          </cell>
-          <cell r="L2">
-            <v>11</v>
-          </cell>
-          <cell r="M2">
-            <v>12</v>
-          </cell>
-          <cell r="N2">
-            <v>13</v>
-          </cell>
-          <cell r="O2">
-            <v>14</v>
-          </cell>
-          <cell r="P2">
-            <v>15</v>
-          </cell>
-          <cell r="Q2">
-            <v>16</v>
-          </cell>
-          <cell r="R2">
-            <v>17</v>
-          </cell>
-          <cell r="S2">
-            <v>18</v>
-          </cell>
-          <cell r="T2">
-            <v>19</v>
-          </cell>
-          <cell r="U2">
-            <v>20</v>
-          </cell>
-          <cell r="V2">
-            <v>21</v>
-          </cell>
-          <cell r="W2">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3" t="str">
-            <v xml:space="preserve">                                        COB</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v xml:space="preserve">                             COB</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v xml:space="preserve">                 SMT</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v xml:space="preserve">               INSERT</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v xml:space="preserve">                SCL</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v xml:space="preserve">                ASSY</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Model</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>B-model</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>PCB No</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>PCB TYPE</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>Usage</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>COB CODE</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>Daily</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>Headcount</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>工数_1</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Daily</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Headcount</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>工数_2</v>
-          </cell>
-          <cell r="N4" t="str">
-            <v>Daily</v>
-          </cell>
-          <cell r="O4" t="str">
-            <v>Headcount</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>工数_3</v>
-          </cell>
-          <cell r="Q4" t="str">
-            <v>Daily</v>
-          </cell>
-          <cell r="R4" t="str">
-            <v>Headcount</v>
-          </cell>
-          <cell r="S4" t="str">
-            <v>工数_3</v>
-          </cell>
-          <cell r="T4" t="str">
-            <v>Daily</v>
-          </cell>
-          <cell r="U4" t="str">
-            <v>Headcount</v>
-          </cell>
-          <cell r="V4" t="str">
-            <v>TTL</v>
-          </cell>
-          <cell r="W4" t="str">
-            <v>工数ASSY前に</v>
-          </cell>
+        <row r="1">
+          <cell r="B1"/>
         </row>
         <row r="5">
-          <cell r="B5" t="str">
-            <v>APESB0CH1-00O2</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>LTOSB0CH1-0002</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>MAIN</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>MAIN-B</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-          <cell r="J5">
-            <v>0</v>
-          </cell>
           <cell r="K5">
             <v>1216</v>
-          </cell>
-          <cell r="L5">
-            <v>4.5</v>
-          </cell>
-          <cell r="M5">
-            <v>3.7006578947368419E-3</v>
           </cell>
           <cell r="N5">
             <v>0</v>
@@ -724,205 +565,25 @@
           <cell r="O5">
             <v>0</v>
           </cell>
-          <cell r="P5">
-            <v>0</v>
-          </cell>
-          <cell r="S5">
-            <v>0</v>
-          </cell>
-          <cell r="V5">
-            <v>3.7006578947368419E-3</v>
-          </cell>
-          <cell r="W5">
-            <v>9.6815191387559802E-3</v>
-          </cell>
         </row>
         <row r="6">
-          <cell r="B6" t="str">
-            <v>APESB0CH1-00O2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>LTOSB0CH1-0002</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>MAIN</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>MAIN-T</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
           <cell r="K6">
             <v>836</v>
           </cell>
-          <cell r="L6">
-            <v>5</v>
-          </cell>
-          <cell r="M6">
-            <v>5.9808612440191387E-3</v>
-          </cell>
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-          <cell r="O6">
-            <v>0</v>
-          </cell>
-          <cell r="P6">
-            <v>0</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
-          </cell>
-          <cell r="V6">
-            <v>5.9808612440191387E-3</v>
-          </cell>
-          <cell r="W6">
-            <v>9.6815191387559802E-3</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="B7" t="str">
-            <v>APESB0CH1-00P2</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>LCPSB0CH1-0001</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>PSU</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>PSU-B</v>
-          </cell>
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
           <cell r="K7">
             <v>1292</v>
           </cell>
-          <cell r="L7">
-            <v>5</v>
-          </cell>
-          <cell r="M7">
-            <v>3.869969040247678E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>1520</v>
-          </cell>
-          <cell r="O7">
-            <v>21</v>
-          </cell>
-          <cell r="P7">
-            <v>1.381578947368421E-2</v>
-          </cell>
-          <cell r="S7">
-            <v>0</v>
-          </cell>
-          <cell r="V7">
-            <v>1.7685758513931889E-2</v>
-          </cell>
-          <cell r="W7">
-            <v>1.7685758513931889E-2</v>
-          </cell>
         </row>
         <row r="8">
-          <cell r="B8" t="str">
-            <v>APESB0CH1-00O3</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>LTOSB0CH1-0001</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>SUB</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>SUB-B</v>
-          </cell>
-          <cell r="F8">
-            <v>1</v>
-          </cell>
-          <cell r="J8">
-            <v>0</v>
-          </cell>
           <cell r="K8">
             <v>684</v>
           </cell>
-          <cell r="L8">
-            <v>4</v>
-          </cell>
-          <cell r="M8">
-            <v>5.8479532163742687E-3</v>
-          </cell>
-          <cell r="N8">
-            <v>0</v>
-          </cell>
-          <cell r="O8">
-            <v>0</v>
-          </cell>
-          <cell r="P8">
-            <v>0</v>
-          </cell>
-          <cell r="S8">
-            <v>0</v>
-          </cell>
-          <cell r="V8">
-            <v>5.8479532163742687E-3</v>
-          </cell>
-          <cell r="W8">
-            <v>2.9239766081871343E-2</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="B9" t="str">
-            <v>APESB0CH1-00O3</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>LTOSB0CH1-0001</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>SUB</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>SUB-T</v>
-          </cell>
-          <cell r="F9">
-            <v>1</v>
-          </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
           <cell r="K9">
             <v>684</v>
-          </cell>
-          <cell r="L9">
-            <v>4.5</v>
-          </cell>
-          <cell r="M9">
-            <v>6.5789473684210523E-3</v>
-          </cell>
-          <cell r="N9">
-            <v>1368</v>
-          </cell>
-          <cell r="O9">
-            <v>23</v>
-          </cell>
-          <cell r="P9">
-            <v>1.6812865497076022E-2</v>
-          </cell>
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="V9">
-            <v>2.3391812865497075E-2</v>
-          </cell>
-          <cell r="W9">
-            <v>2.9239766081871343E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1230,13 +891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCA9E1C-00EE-43D5-9403-95C5B59CF8A4}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1244,29 +905,31 @@
     <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -1276,40 +939,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1317,32 +983,33 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="26"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="30"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="6">
-        <f>+SUM(I3,F3,D3)</f>
+        <f>+SUM(J3,G3,D3)</f>
         <v>30</v>
       </c>
       <c r="D3" s="7">
@@ -1360,50 +1027,54 @@
         <f>+AVERAGE([1]SMT!K5:K6)</f>
         <v>1026</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
+        <f>IFERROR(D3/E3,0)</f>
+        <v>9.7465886939571145E-3</v>
+      </c>
+      <c r="G3" s="9">
         <f>+[1]SMT!O5</f>
         <v>0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <f>+[1]SMT!N5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="11">
-        <f>+VLOOKUP(A3,[1]SMT!$B:$W,22,0)</f>
-        <v>9.6815191387559802E-3</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
+        <f>IFERROR(G3/H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>20</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>635</v>
       </c>
-      <c r="K3" s="12">
-        <f>IFERROR(I3/J3,"0")</f>
+      <c r="L3" s="12">
+        <f>IFERROR(J3/K3,"0")</f>
         <v>3.1496062992125984E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>20</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>635</v>
       </c>
-      <c r="N3" s="12">
-        <f>IFERROR(L3/M3,"0")</f>
+      <c r="O3" s="12">
+        <f>IFERROR(M3/N3,"0")</f>
         <v>3.1496062992125984E-2</v>
       </c>
-      <c r="O3" s="12">
-        <f>IFERROR(K3+H3,"0")</f>
-        <v>4.1177582130881962E-2</v>
-      </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12">
+        <f t="shared" ref="P3:P4" si="0">O3+L3+I3+F3</f>
+        <v>7.2738714678209082E-2</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="R3" s="20">
         <v>45751</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="6">
-        <f>+SUM(I4,F4,D4)</f>
+        <f>+SUM(J4,G4,D4)</f>
         <v>32</v>
       </c>
       <c r="D4" s="7">
@@ -1421,48 +1092,52 @@
         <f>+[1]SMT!K7</f>
         <v>1292</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F5" si="1">IFERROR(D4/E4,0)</f>
+        <v>3.869969040247678E-3</v>
+      </c>
+      <c r="G4" s="9">
         <v>21</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>1520</v>
       </c>
-      <c r="H4" s="11">
-        <f>+VLOOKUP(A4,[1]SMT!$B:$W,22,0)</f>
-        <v>1.7685758513931889E-2</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I5" si="2">IFERROR(G4/H4,0)</f>
+        <v>1.381578947368421E-2</v>
+      </c>
+      <c r="J4" s="10">
         <v>6</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>893</v>
       </c>
-      <c r="K4" s="12">
-        <f>IFERROR(I4/J4,"0")</f>
+      <c r="L4" s="12">
+        <f>IFERROR(J4/K4,"0")</f>
         <v>6.7189249720044789E-3</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>6</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>893</v>
       </c>
-      <c r="N4" s="12">
-        <f>IFERROR(L4/M4,"0")</f>
+      <c r="O4" s="12">
+        <f>IFERROR(M4/N4,"0")</f>
         <v>6.7189249720044789E-3</v>
       </c>
-      <c r="O4" s="12">
-        <f>IFERROR(K4+H4,"0")</f>
-        <v>2.4404683485936367E-2</v>
-      </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12">
+        <f t="shared" si="0"/>
+        <v>3.1123608457940845E-2</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="R4" s="20">
         <v>45752</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="6">
-        <f>+SUM(I5,F5,D5)</f>
+        <f>+SUM(J5,G5,D5)</f>
         <v>41</v>
       </c>
       <c r="D5" s="15">
@@ -1480,67 +1155,72 @@
         <f>+AVERAGE([1]SMT!K8:K9)</f>
         <v>684</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="G5" s="17">
         <v>23</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H5" s="17">
         <v>1368</v>
       </c>
-      <c r="H5" s="18">
-        <f>+VLOOKUP(A5,[1]SMT!$B:$W,22,0)</f>
-        <v>2.9239766081871343E-2</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6812865497076022E-2</v>
+      </c>
+      <c r="J5" s="10">
         <v>9</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>819</v>
       </c>
-      <c r="K5" s="12">
-        <f>IFERROR(I5/J5,"0")</f>
+      <c r="L5" s="12">
+        <f>IFERROR(J5/K5,"0")</f>
         <v>1.098901098901099E-2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>9</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>819</v>
       </c>
-      <c r="N5" s="12">
-        <f>IFERROR(L5/M5,"0")</f>
+      <c r="O5" s="12">
+        <f>IFERROR(M5/N5,"0")</f>
         <v>1.098901098901099E-2</v>
       </c>
-      <c r="O5" s="12">
-        <f>IFERROR(K5+H5,"0")</f>
-        <v>4.0228777070882335E-2</v>
-      </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12">
+        <f>O5+L5+I5+F5</f>
+        <v>5.1948782211940103E-2</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="R5" s="20">
         <v>45753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A579:N678">
-      <sortCondition ref="F1:F676"/>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A579:O678">
+      <sortCondition ref="G1:G676"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>

--- a/wwwroot/UploadTemplate/PE/MainpowerUploadTemplate.xlsx
+++ b/wwwroot/UploadTemplate/PE/MainpowerUploadTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MESProject\wwwroot\UploadTemplate\PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33C79E-D8E3-48BE-ADF8-00D4AB7FFEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D45E439-A567-4A2A-8EF6-6BD71CD06736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BED4B4A-46C0-438A-878F-85521BD3D11B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manpower!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manpower!$A$2:$P$2</definedName>
     <definedName name="bp_locate">#REF!</definedName>
     <definedName name="itemcode">#REF!</definedName>
     <definedName name="level">#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Model</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>CHECKLINE 前</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -447,38 +453,38 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -552,9 +558,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1"/>
-        </row>
         <row r="5">
           <cell r="K5">
             <v>1216</v>
@@ -894,338 +897,348 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="30.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" ht="15">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="30"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6">
-        <f>+SUM(J3,G3,D3)</f>
+      <c r="D3" s="6">
+        <f>+SUM(K3,H3,E3)</f>
         <v>30</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <f>+AVERAGE([1]SMT!K5:K6)</f>
         <v>1026</v>
       </c>
-      <c r="F3" s="11">
-        <f>IFERROR(D3/E3,0)</f>
+      <c r="G3" s="11">
+        <f>IFERROR(E3/F3,0)</f>
         <v>9.7465886939571145E-3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <f>+[1]SMT!O5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <f>+[1]SMT!N5</f>
         <v>0</v>
       </c>
-      <c r="I3" s="11">
-        <f>IFERROR(G3/H3,0)</f>
+      <c r="J3" s="11">
+        <f>IFERROR(H3/I3,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>20</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>635</v>
       </c>
-      <c r="L3" s="12">
-        <f>IFERROR(J3/K3,"0")</f>
+      <c r="M3" s="12">
+        <f>IFERROR(K3/L3,"0")</f>
         <v>3.1496062992125984E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>20</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>635</v>
       </c>
-      <c r="O3" s="12">
-        <f>IFERROR(M3/N3,"0")</f>
+      <c r="P3" s="12">
+        <f>IFERROR(N3/O3,"0")</f>
         <v>3.1496062992125984E-2</v>
       </c>
-      <c r="P3" s="12">
-        <f t="shared" ref="P3:P4" si="0">O3+L3+I3+F3</f>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q4" si="0">P3+M3+J3+G3</f>
         <v>7.2738714678209082E-2</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="20">
+      <c r="S3" s="20">
         <v>45751</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
-        <f>+SUM(J4,G4,D4)</f>
+      <c r="D4" s="6">
+        <f>+SUM(K4,H4,E4)</f>
         <v>32</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <f>+[1]SMT!K7</f>
         <v>1292</v>
       </c>
-      <c r="F4" s="11">
-        <f t="shared" ref="F4:F5" si="1">IFERROR(D4/E4,0)</f>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G5" si="1">IFERROR(E4/F4,0)</f>
         <v>3.869969040247678E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>21</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>1520</v>
       </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I5" si="2">IFERROR(G4/H4,0)</f>
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J5" si="2">IFERROR(H4/I4,0)</f>
         <v>1.381578947368421E-2</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>6</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>893</v>
       </c>
-      <c r="L4" s="12">
-        <f>IFERROR(J4/K4,"0")</f>
+      <c r="M4" s="12">
+        <f>IFERROR(K4/L4,"0")</f>
         <v>6.7189249720044789E-3</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>6</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>893</v>
       </c>
-      <c r="O4" s="12">
-        <f>IFERROR(M4/N4,"0")</f>
+      <c r="P4" s="12">
+        <f>IFERROR(N4/O4,"0")</f>
         <v>6.7189249720044789E-3</v>
       </c>
-      <c r="P4" s="12">
+      <c r="Q4" s="12">
         <f t="shared" si="0"/>
         <v>3.1123608457940845E-2</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="20">
+      <c r="S4" s="20">
         <v>45752</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6">
-        <f>+SUM(J5,G5,D5)</f>
+      <c r="D5" s="6">
+        <f>+SUM(K5,H5,E5)</f>
         <v>41</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="15">
         <v>9</v>
       </c>
-      <c r="E5" s="16">
+      <c r="F5" s="16">
         <f>+AVERAGE([1]SMT!K8:K9)</f>
         <v>684</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H5" s="17">
         <v>23</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I5" s="17">
         <v>1368</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
         <v>1.6812865497076022E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>819</v>
       </c>
-      <c r="L5" s="12">
-        <f>IFERROR(J5/K5,"0")</f>
+      <c r="M5" s="12">
+        <f>IFERROR(K5/L5,"0")</f>
         <v>1.098901098901099E-2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>9</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>819</v>
       </c>
-      <c r="O5" s="12">
-        <f>IFERROR(M5/N5,"0")</f>
+      <c r="P5" s="12">
+        <f>IFERROR(N5/O5,"0")</f>
         <v>1.098901098901099E-2</v>
       </c>
-      <c r="P5" s="12">
-        <f>O5+L5+I5+F5</f>
+      <c r="Q5" s="12">
+        <f>P5+M5+J5+G5</f>
         <v>5.1948782211940103E-2</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="R5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="20">
+      <c r="S5" s="20">
         <v>45753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A579:O678">
-      <sortCondition ref="G1:G676"/>
+  <autoFilter ref="A2:P2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A579:P678">
+      <sortCondition ref="H1:H676"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:E1048576">
+  <conditionalFormatting sqref="E6:F1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
